--- a/data/scheduling_DNN/predict/0.1/result13.xlsx
+++ b/data/scheduling_DNN/predict/0.1/result13.xlsx
@@ -570,10 +570,10 @@
         <v>0.867419958114624</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4586285054683685</v>
+        <v>0.5342243313789368</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1671104580163956</v>
+        <v>0.1110193282365799</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.8554251194000244</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4867736101150513</v>
+        <v>0.5344277024269104</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1359039396047592</v>
+        <v>0.103039339184761</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9077110290527344</v>
       </c>
       <c r="V4" t="n">
-        <v>0.551807165145874</v>
+        <v>0.7199352383613586</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1266675591468811</v>
+        <v>0.03525974601507187</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8789451122283936</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5017546415328979</v>
+        <v>0.4715111255645752</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1422726511955261</v>
+        <v>0.1660024523735046</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8622000217437744</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4986482858657837</v>
+        <v>0.4844029545783997</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1321698576211929</v>
+        <v>0.1427306234836578</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8637559413909912</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5654192566871643</v>
+        <v>0.4771718978881836</v>
       </c>
       <c r="W7" t="n">
-        <v>0.08900477737188339</v>
+        <v>0.1494472175836563</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.9140341281890869</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6608701944351196</v>
+        <v>0.4788275361061096</v>
       </c>
       <c r="W8" t="n">
-        <v>0.06409198045730591</v>
+        <v>0.189404770731926</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8797261714935303</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4356054365634918</v>
+        <v>0.5339686870574951</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1972432285547256</v>
+        <v>0.1195482388138771</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8502030372619629</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5693919658660889</v>
+        <v>0.5329525470733643</v>
       </c>
       <c r="W10" t="n">
-        <v>0.07885485887527466</v>
+        <v>0.1006478741765022</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8700261116027832</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5687457323074341</v>
+        <v>0.9011950492858887</v>
       </c>
       <c r="W11" t="n">
-        <v>0.09076986461877823</v>
+        <v>0.000971502682659775</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.9052560329437256</v>
       </c>
       <c r="V12" t="n">
-        <v>0.6240432262420654</v>
+        <v>0.9139090180397034</v>
       </c>
       <c r="W12" t="n">
-        <v>0.07908064126968384</v>
+        <v>7.487415132345632e-05</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.855914831161499</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5035362839698792</v>
+        <v>0.5342987179756165</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1241706386208534</v>
+        <v>0.1034369245171547</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8917369842529297</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4706680178642273</v>
+        <v>0.4771080017089844</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1772990673780441</v>
+        <v>0.171917200088501</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.8743319511413574</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5758230686187744</v>
+        <v>0.9022383093833923</v>
       </c>
       <c r="W15" t="n">
-        <v>0.08910755068063736</v>
+        <v>0.0007787648355588317</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8895649909973145</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4585598111152649</v>
+        <v>0.5092414021492004</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1857654601335526</v>
+        <v>0.1446460336446762</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.899616003036499</v>
       </c>
       <c r="V17" t="n">
-        <v>0.7365775108337402</v>
+        <v>0.4852071404457092</v>
       </c>
       <c r="W17" t="n">
-        <v>0.02658155001699924</v>
+        <v>0.1717347055673599</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.9128749370574951</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4729442894458771</v>
+        <v>0.505374550819397</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1935389786958694</v>
+        <v>0.1660565584897995</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.850132942199707</v>
       </c>
       <c r="V19" t="n">
-        <v>0.4584724307060242</v>
+        <v>0.9503723382949829</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1533979624509811</v>
+        <v>0.01004793681204319</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8759419918060303</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5489695072174072</v>
+        <v>0.5340548157691956</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1069110035896301</v>
+        <v>0.1168868392705917</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8667349815368652</v>
       </c>
       <c r="V21" t="n">
-        <v>0.6585376262664795</v>
+        <v>0.534440279006958</v>
       </c>
       <c r="W21" t="n">
-        <v>0.04334614053368568</v>
+        <v>0.1104197725653648</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5328369140625</v>
       </c>
       <c r="V22" t="n">
-        <v>0.435836523771286</v>
+        <v>0.9020989537239075</v>
       </c>
       <c r="W22" t="n">
-        <v>0.009409075602889061</v>
+        <v>0.136354461312294</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5367081165313721</v>
       </c>
       <c r="V23" t="n">
-        <v>0.458252340555191</v>
+        <v>0.5164451599121094</v>
       </c>
       <c r="W23" t="n">
-        <v>0.006155308801680803</v>
+        <v>0.0004105874104425311</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.585831880569458</v>
       </c>
       <c r="V24" t="n">
-        <v>0.5523611307144165</v>
+        <v>0.4847553968429565</v>
       </c>
       <c r="W24" t="n">
-        <v>0.001120291068218648</v>
+        <v>0.01021645590662956</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5401909351348877</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4360131323337555</v>
+        <v>0.6347174048423767</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01085301488637924</v>
+        <v>0.008935253135859966</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5778930187225342</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4577591419219971</v>
+        <v>0.4989712834358215</v>
       </c>
       <c r="W26" t="n">
-        <v>0.01443214807659388</v>
+        <v>0.006228640209883451</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5192298889160156</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5535465478897095</v>
+        <v>0.9144667983055115</v>
       </c>
       <c r="W27" t="n">
-        <v>0.001177633064799011</v>
+        <v>0.1562122106552124</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5319809913635254</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4487207531929016</v>
+        <v>0.8926740288734436</v>
       </c>
       <c r="W28" t="n">
-        <v>0.00693226745352149</v>
+        <v>0.1300994604825974</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5468580722808838</v>
       </c>
       <c r="V29" t="n">
-        <v>0.6213033199310303</v>
+        <v>0.4778774380683899</v>
       </c>
       <c r="W29" t="n">
-        <v>0.005542094819247723</v>
+        <v>0.004758327733725309</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.530858039855957</v>
       </c>
       <c r="V30" t="n">
-        <v>0.6437778472900391</v>
+        <v>0.8991655707359314</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01275088265538216</v>
+        <v>0.1356504410505295</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5272669792175293</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5573711395263672</v>
+        <v>0.9138787388801575</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0009062604513019323</v>
+        <v>0.1494686454534531</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5225701332092285</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4356208145618439</v>
+        <v>0.4774560332298279</v>
       </c>
       <c r="W32" t="n">
-        <v>0.007560184225440025</v>
+        <v>0.002035282086580992</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5110318660736084</v>
       </c>
       <c r="V33" t="n">
-        <v>0.473930835723877</v>
+        <v>0.4852508306503296</v>
       </c>
       <c r="W33" t="n">
-        <v>0.001376486499793828</v>
+        <v>0.0006646618130616844</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5161008834838867</v>
       </c>
       <c r="V34" t="n">
-        <v>0.4360246360301971</v>
+        <v>0.4734594225883484</v>
       </c>
       <c r="W34" t="n">
-        <v>0.006412205286324024</v>
+        <v>0.001818294171243906</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5265629291534424</v>
       </c>
       <c r="V35" t="n">
-        <v>0.6568361520767212</v>
+        <v>0.5159838199615479</v>
       </c>
       <c r="W35" t="n">
-        <v>0.01697111316025257</v>
+        <v>0.0001119175503845327</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5216948986053467</v>
       </c>
       <c r="V36" t="n">
-        <v>0.3819113075733185</v>
+        <v>0.4681805968284607</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01953945308923721</v>
+        <v>0.002863780595362186</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5152590274810791</v>
       </c>
       <c r="V37" t="n">
-        <v>0.6851100921630859</v>
+        <v>0.5098850727081299</v>
       </c>
       <c r="W37" t="n">
-        <v>0.02884938381612301</v>
+        <v>2.887938899220899e-05</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5138399600982666</v>
       </c>
       <c r="V38" t="n">
-        <v>0.5545165538787842</v>
+        <v>0.9060330986976624</v>
       </c>
       <c r="W38" t="n">
-        <v>0.001654585241340101</v>
+        <v>0.1538154631853104</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5079770088195801</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4360276758670807</v>
+        <v>0.488552451133728</v>
       </c>
       <c r="W39" t="n">
-        <v>0.005176706705242395</v>
+        <v>0.0003773134376388043</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5681521892547607</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4360241889953613</v>
+        <v>0.534484326839447</v>
       </c>
       <c r="W40" t="n">
-        <v>0.01745780929923058</v>
+        <v>0.001133524929173291</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5325798988342285</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4741716682910919</v>
+        <v>0.4777041673660278</v>
       </c>
       <c r="W41" t="n">
-        <v>0.003411521436646581</v>
+        <v>0.003011345863342285</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4025321006774902</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4357438981533051</v>
+        <v>0.5329670906066895</v>
       </c>
       <c r="W42" t="n">
-        <v>0.001103023532778025</v>
+        <v>0.01701328717172146</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4053730964660645</v>
       </c>
       <c r="V43" t="n">
-        <v>0.6047799587249756</v>
+        <v>0.4782463312149048</v>
       </c>
       <c r="W43" t="n">
-        <v>0.03976309671998024</v>
+        <v>0.005310508422553539</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3800070285797119</v>
       </c>
       <c r="V44" t="n">
-        <v>0.5043182373046875</v>
+        <v>0.9404679536819458</v>
       </c>
       <c r="W44" t="n">
-        <v>0.01545327622443438</v>
+        <v>0.3141164481639862</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3868329524993896</v>
       </c>
       <c r="V45" t="n">
-        <v>0.6237491369247437</v>
+        <v>0.9963405728340149</v>
       </c>
       <c r="W45" t="n">
-        <v>0.05612927675247192</v>
+        <v>0.3714995384216309</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.4187939167022705</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4731965661048889</v>
+        <v>0.5505043268203735</v>
       </c>
       <c r="W46" t="n">
-        <v>0.00295964814722538</v>
+        <v>0.01734763197600842</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4050509929656982</v>
       </c>
       <c r="V47" t="n">
-        <v>0.4707594513893127</v>
+        <v>0.8671594262123108</v>
       </c>
       <c r="W47" t="n">
-        <v>0.004317601677030325</v>
+        <v>0.2135442048311234</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.389564037322998</v>
       </c>
       <c r="V48" t="n">
-        <v>0.3801888823509216</v>
+        <v>0.5129316449165344</v>
       </c>
       <c r="W48" t="n">
-        <v>8.789353159954771e-05</v>
+        <v>0.01521956641227007</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.38519287109375</v>
       </c>
       <c r="V49" t="n">
-        <v>0.4360257685184479</v>
+        <v>0.5127423405647278</v>
       </c>
       <c r="W49" t="n">
-        <v>0.002583983354270458</v>
+        <v>0.01626886799931526</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3868429660797119</v>
       </c>
       <c r="V50" t="n">
-        <v>0.5036900043487549</v>
+        <v>0.8872420787811279</v>
       </c>
       <c r="W50" t="n">
-        <v>0.0136532299220562</v>
+        <v>0.250399261713028</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3819510936737061</v>
       </c>
       <c r="V51" t="n">
-        <v>0.561543881893158</v>
+        <v>0.5335940718650818</v>
       </c>
       <c r="W51" t="n">
-        <v>0.03225357085466385</v>
+        <v>0.0229955930262804</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3930759429931641</v>
       </c>
       <c r="V52" t="n">
-        <v>0.4360244274139404</v>
+        <v>0.8747110962867737</v>
       </c>
       <c r="W52" t="n">
-        <v>0.001844572369009256</v>
+        <v>0.2319724261760712</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3866920471191406</v>
       </c>
       <c r="V53" t="n">
-        <v>0.6839810609817505</v>
+        <v>0.4681341648101807</v>
       </c>
       <c r="W53" t="n">
-        <v>0.08838076144456863</v>
+        <v>0.006632818374782801</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3857598304748535</v>
       </c>
       <c r="V54" t="n">
-        <v>0.480756551027298</v>
+        <v>0.9016739726066589</v>
       </c>
       <c r="W54" t="n">
-        <v>0.009024376980960369</v>
+        <v>0.2661674022674561</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3874068260192871</v>
       </c>
       <c r="V55" t="n">
-        <v>0.5686811208724976</v>
+        <v>0.9553824067115784</v>
       </c>
       <c r="W55" t="n">
-        <v>0.03286036849021912</v>
+        <v>0.3225962519645691</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3826160430908203</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5039443373680115</v>
+        <v>0.481633722782135</v>
       </c>
       <c r="W56" t="n">
-        <v>0.01472055539488792</v>
+        <v>0.009804501198232174</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3872640132904053</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4535786509513855</v>
+        <v>0.4835573434829712</v>
       </c>
       <c r="W57" t="n">
-        <v>0.004397631157189608</v>
+        <v>0.009272405877709389</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3787779808044434</v>
       </c>
       <c r="V58" t="n">
-        <v>0.4576366245746613</v>
+        <v>0.4830352663993835</v>
       </c>
       <c r="W58" t="n">
-        <v>0.006218685768544674</v>
+        <v>0.0108695812523365</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.441910982131958</v>
       </c>
       <c r="V59" t="n">
-        <v>0.5506994724273682</v>
+        <v>0.5047019124031067</v>
       </c>
       <c r="W59" t="n">
-        <v>0.011834935285151</v>
+        <v>0.003942701034247875</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.387160062789917</v>
       </c>
       <c r="V60" t="n">
-        <v>0.6241397857666016</v>
+        <v>0.9397857785224915</v>
       </c>
       <c r="W60" t="n">
-        <v>0.05615938827395439</v>
+        <v>0.3053951859474182</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3864917755126953</v>
       </c>
       <c r="V61" t="n">
-        <v>0.4576598405838013</v>
+        <v>0.4847033023834229</v>
       </c>
       <c r="W61" t="n">
-        <v>0.005064893513917923</v>
+        <v>0.00964550394564867</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8846099376678467</v>
       </c>
       <c r="V62" t="n">
-        <v>0.6278610229492188</v>
+        <v>0.5503005385398865</v>
       </c>
       <c r="W62" t="n">
-        <v>0.06592000275850296</v>
+        <v>0.1117627769708633</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8591771125793457</v>
       </c>
       <c r="V63" t="n">
-        <v>0.8181720972061157</v>
+        <v>0.4901280999183655</v>
       </c>
       <c r="W63" t="n">
-        <v>0.001681411289609969</v>
+        <v>0.1361971795558929</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.9069371223449707</v>
       </c>
       <c r="V64" t="n">
-        <v>0.6435973644256592</v>
+        <v>0.4747713804244995</v>
       </c>
       <c r="W64" t="n">
-        <v>0.06934782862663269</v>
+        <v>0.1867672353982925</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8717629909515381</v>
       </c>
       <c r="V65" t="n">
-        <v>0.5017416477203369</v>
+        <v>0.4814846515655518</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1369157880544662</v>
+        <v>0.1523171812295914</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8818800449371338</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4360113441944122</v>
+        <v>0.8753681778907776</v>
       </c>
       <c r="W66" t="n">
-        <v>0.1987988948822021</v>
+        <v>4.240441194269806e-05</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.862861156463623</v>
       </c>
       <c r="V67" t="n">
-        <v>0.6584680080413818</v>
+        <v>0.8645161390304565</v>
       </c>
       <c r="W67" t="n">
-        <v>0.04177656024694443</v>
+        <v>2.73896739599877e-06</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9229187965393066</v>
       </c>
       <c r="V68" t="n">
-        <v>0.4360217452049255</v>
+        <v>0.9365071654319763</v>
       </c>
       <c r="W68" t="n">
-        <v>0.2370687425136566</v>
+        <v>0.0001846437662607059</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8638811111450195</v>
       </c>
       <c r="V69" t="n">
-        <v>0.6570971012115479</v>
+        <v>0.4893420934677124</v>
       </c>
       <c r="W69" t="n">
-        <v>0.04275962710380554</v>
+        <v>0.1402794718742371</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8506851196289062</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5496547222137451</v>
+        <v>0.9056666493415833</v>
       </c>
       <c r="W70" t="n">
-        <v>0.09061930328607559</v>
+        <v>0.003022968536242843</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8610270023345947</v>
       </c>
       <c r="V71" t="n">
-        <v>0.6196457147598267</v>
+        <v>0.5343490242958069</v>
       </c>
       <c r="W71" t="n">
-        <v>0.05826492607593536</v>
+        <v>0.1067185029387474</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.9200329780578613</v>
       </c>
       <c r="V72" t="n">
-        <v>0.6241047382354736</v>
+        <v>0.9605911374092102</v>
       </c>
       <c r="W72" t="n">
-        <v>0.08757352083921432</v>
+        <v>0.001644964329898357</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8578121662139893</v>
       </c>
       <c r="V73" t="n">
-        <v>0.4575594365596771</v>
+        <v>0.480732798576355</v>
       </c>
       <c r="W73" t="n">
-        <v>0.1602022498846054</v>
+        <v>0.1421888470649719</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8537998199462891</v>
       </c>
       <c r="V74" t="n">
-        <v>0.5533381700515747</v>
+        <v>0.5162821412086487</v>
       </c>
       <c r="W74" t="n">
-        <v>0.09027720242738724</v>
+        <v>0.1139181852340698</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8579308986663818</v>
       </c>
       <c r="V75" t="n">
-        <v>0.4360273480415344</v>
+        <v>0.5184354782104492</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1780026108026505</v>
+        <v>0.1152571439743042</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.9067189693450928</v>
       </c>
       <c r="V76" t="n">
-        <v>0.4761776030063629</v>
+        <v>0.4889997243881226</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1853658705949783</v>
+        <v>0.174489364027977</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8593399524688721</v>
       </c>
       <c r="V77" t="n">
-        <v>0.4360229969024658</v>
+        <v>0.9368802905082703</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1791972517967224</v>
+        <v>0.006012503989040852</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8497638702392578</v>
       </c>
       <c r="V78" t="n">
-        <v>0.6190383434295654</v>
+        <v>0.4943738579750061</v>
       </c>
       <c r="W78" t="n">
-        <v>0.05323426797986031</v>
+        <v>0.1263020634651184</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8608498573303223</v>
       </c>
       <c r="V79" t="n">
-        <v>0.6275705099105835</v>
+        <v>0.4776079654693604</v>
       </c>
       <c r="W79" t="n">
-        <v>0.05441925302147865</v>
+        <v>0.1468743532896042</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.91255784034729</v>
       </c>
       <c r="V80" t="n">
-        <v>0.6256434917449951</v>
+        <v>0.5508660078048706</v>
       </c>
       <c r="W80" t="n">
-        <v>0.08231984078884125</v>
+        <v>0.1308209747076035</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8637909889221191</v>
       </c>
       <c r="V81" t="n">
-        <v>0.8160817623138428</v>
+        <v>0.4841139912605286</v>
       </c>
       <c r="W81" t="n">
-        <v>0.002276170300319791</v>
+        <v>0.1441546231508255</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5385940074920654</v>
       </c>
       <c r="V82" t="n">
-        <v>0.4356837570667267</v>
+        <v>0.4783064723014832</v>
       </c>
       <c r="W82" t="n">
-        <v>0.01059051975607872</v>
+        <v>0.003634586930274963</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5259819030761719</v>
       </c>
       <c r="V83" t="n">
-        <v>0.5529001951217651</v>
+        <v>0.4813108444213867</v>
       </c>
       <c r="W83" t="n">
-        <v>0.0007245944580063224</v>
+        <v>0.001995503436774015</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5154139995574951</v>
       </c>
       <c r="V84" t="n">
-        <v>0.4664293229579926</v>
+        <v>0.5091587901115417</v>
       </c>
       <c r="W84" t="n">
-        <v>0.002399498596787453</v>
+        <v>3.912764441338368e-05</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5165121555328369</v>
       </c>
       <c r="V85" t="n">
-        <v>0.5526103377342224</v>
+        <v>0.9018726348876953</v>
       </c>
       <c r="W85" t="n">
-        <v>0.001303078723140061</v>
+        <v>0.1485026925802231</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5327041149139404</v>
       </c>
       <c r="V86" t="n">
-        <v>0.4357512891292572</v>
+        <v>0.9099817276000977</v>
       </c>
       <c r="W86" t="n">
-        <v>0.009399850852787495</v>
+        <v>0.1423383951187134</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5120220184326172</v>
       </c>
       <c r="V87" t="n">
-        <v>0.4550628066062927</v>
+        <v>0.8749550580978394</v>
       </c>
       <c r="W87" t="n">
-        <v>0.003244351828470826</v>
+        <v>0.1317203938961029</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5036618709564209</v>
       </c>
       <c r="V88" t="n">
-        <v>0.4542677104473114</v>
+        <v>0.4989913702011108</v>
       </c>
       <c r="W88" t="n">
-        <v>0.002439783187583089</v>
+        <v>2.181357740482781e-05</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5049600601196289</v>
       </c>
       <c r="V89" t="n">
-        <v>0.6213141679763794</v>
+        <v>0.936930775642395</v>
       </c>
       <c r="W89" t="n">
-        <v>0.01353827863931656</v>
+        <v>0.1865987032651901</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5657618045806885</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4360238015651703</v>
+        <v>0.5328468084335327</v>
       </c>
       <c r="W90" t="n">
-        <v>0.01683194935321808</v>
+        <v>0.0010833969572559</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5219128131866455</v>
       </c>
       <c r="V91" t="n">
-        <v>0.5499672889709473</v>
+        <v>0.4793201684951782</v>
       </c>
       <c r="W91" t="n">
-        <v>0.0007870536064729095</v>
+        <v>0.00181413337122649</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5200090408325195</v>
       </c>
       <c r="V92" t="n">
-        <v>0.4356223046779633</v>
+        <v>0.5517117977142334</v>
       </c>
       <c r="W92" t="n">
-        <v>0.007121121045202017</v>
+        <v>0.001005064812488854</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5168218612670898</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4962058663368225</v>
+        <v>0.5046029090881348</v>
       </c>
       <c r="W93" t="n">
-        <v>0.0004250192432664335</v>
+        <v>0.0001493027957621962</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5125842094421387</v>
       </c>
       <c r="V94" t="n">
-        <v>0.6568613052368164</v>
+        <v>0.4898434281349182</v>
       </c>
       <c r="W94" t="n">
-        <v>0.02081588096916676</v>
+        <v>0.0005171431112103164</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5131239891052246</v>
       </c>
       <c r="V95" t="n">
-        <v>0.4360189139842987</v>
+        <v>0.4862239360809326</v>
       </c>
       <c r="W95" t="n">
-        <v>0.005945192649960518</v>
+        <v>0.0007236128440126777</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5166869163513184</v>
       </c>
       <c r="V96" t="n">
-        <v>0.4739275276660919</v>
+        <v>0.9013444781303406</v>
       </c>
       <c r="W96" t="n">
-        <v>0.001828365377150476</v>
+        <v>0.147961437702179</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5150530338287354</v>
       </c>
       <c r="V97" t="n">
-        <v>0.551541268825531</v>
+        <v>0.505460262298584</v>
       </c>
       <c r="W97" t="n">
-        <v>0.001331391278654337</v>
+        <v>9.202126238960773e-05</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5152809619903564</v>
       </c>
       <c r="V98" t="n">
-        <v>0.6258492469787598</v>
+        <v>0.9075639843940735</v>
       </c>
       <c r="W98" t="n">
-        <v>0.01222534570842981</v>
+        <v>0.1538859754800797</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5159499645233154</v>
       </c>
       <c r="V99" t="n">
-        <v>0.5042864084243774</v>
+        <v>0.4992195963859558</v>
       </c>
       <c r="W99" t="n">
-        <v>0.0001360385358566418</v>
+        <v>0.0002799052163027227</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.51705002784729</v>
       </c>
       <c r="V100" t="n">
-        <v>0.6732223033905029</v>
+        <v>0.8996810913085938</v>
       </c>
       <c r="W100" t="n">
-        <v>0.02438977919518948</v>
+        <v>0.1464065313339233</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5681569576263428</v>
       </c>
       <c r="V101" t="n">
-        <v>0.8231731653213501</v>
+        <v>0.9126312136650085</v>
       </c>
       <c r="W101" t="n">
-        <v>0.06503326445817947</v>
+        <v>0.1186625137925148</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4116418361663818</v>
       </c>
       <c r="V102" t="n">
-        <v>0.6243352890014648</v>
+        <v>0.5513302683830261</v>
       </c>
       <c r="W102" t="n">
-        <v>0.04523850604891777</v>
+        <v>0.01951285824179649</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3946218490600586</v>
       </c>
       <c r="V103" t="n">
-        <v>0.5041597485542297</v>
+        <v>0.5343355536460876</v>
       </c>
       <c r="W103" t="n">
-        <v>0.01199855096638203</v>
+        <v>0.01951991952955723</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4080150127410889</v>
       </c>
       <c r="V104" t="n">
-        <v>0.5517270565032959</v>
+        <v>0.5519034862518311</v>
       </c>
       <c r="W104" t="n">
-        <v>0.02065315097570419</v>
+        <v>0.02070389315485954</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4136021137237549</v>
       </c>
       <c r="V105" t="n">
-        <v>0.4360207617282867</v>
+        <v>0.9010742902755737</v>
       </c>
       <c r="W105" t="n">
-        <v>0.0005025957943871617</v>
+        <v>0.2376291155815125</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3843398094177246</v>
       </c>
       <c r="V106" t="n">
-        <v>0.5521078109741211</v>
+        <v>0.5347024202346802</v>
       </c>
       <c r="W106" t="n">
-        <v>0.02814610302448273</v>
+        <v>0.02260891534388065</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.4400668144226074</v>
       </c>
       <c r="V107" t="n">
-        <v>0.473088413476944</v>
+        <v>0.5129685401916504</v>
       </c>
       <c r="W107" t="n">
-        <v>0.001090425997972488</v>
+        <v>0.005314661655575037</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3817679882049561</v>
       </c>
       <c r="V108" t="n">
-        <v>0.4551306962966919</v>
+        <v>0.5569320917129517</v>
       </c>
       <c r="W108" t="n">
-        <v>0.005382087081670761</v>
+        <v>0.03068246319890022</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3935270309448242</v>
       </c>
       <c r="V109" t="n">
-        <v>0.3788739442825317</v>
+        <v>0.8812726140022278</v>
       </c>
       <c r="W109" t="n">
-        <v>0.000214712941669859</v>
+        <v>0.2378957569599152</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3860769271850586</v>
       </c>
       <c r="V110" t="n">
-        <v>0.5730562210083008</v>
+        <v>1.139253377914429</v>
       </c>
       <c r="W110" t="n">
-        <v>0.03496125712990761</v>
+        <v>0.5672747492790222</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3852458000183105</v>
       </c>
       <c r="V111" t="n">
-        <v>0.4658282697200775</v>
+        <v>0.485762357711792</v>
       </c>
       <c r="W111" t="n">
-        <v>0.006493534427136183</v>
+        <v>0.01010357867926359</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4040000438690186</v>
       </c>
       <c r="V112" t="n">
-        <v>0.5010216236114502</v>
+        <v>0.5048470497131348</v>
       </c>
       <c r="W112" t="n">
-        <v>0.009413187392055988</v>
+        <v>0.01017011888325214</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3897950649261475</v>
       </c>
       <c r="V113" t="n">
-        <v>0.5066593885421753</v>
+        <v>0.9077384471893311</v>
       </c>
       <c r="W113" t="n">
-        <v>0.01365726999938488</v>
+        <v>0.2682653367519379</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3831589221954346</v>
       </c>
       <c r="V114" t="n">
-        <v>0.6210076808929443</v>
+        <v>0.8988134264945984</v>
       </c>
       <c r="W114" t="n">
-        <v>0.05657203122973442</v>
+        <v>0.2658995687961578</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.38301682472229</v>
       </c>
       <c r="V115" t="n">
-        <v>0.4575503170490265</v>
+        <v>0.4996531009674072</v>
       </c>
       <c r="W115" t="n">
-        <v>0.005555241368710995</v>
+        <v>0.01360402069985867</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3899860382080078</v>
       </c>
       <c r="V116" t="n">
-        <v>0.5019413232803345</v>
+        <v>0.485358715057373</v>
       </c>
       <c r="W116" t="n">
-        <v>0.01253398600965738</v>
+        <v>0.009095947258174419</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3903141021728516</v>
       </c>
       <c r="V117" t="n">
-        <v>0.6009038686752319</v>
+        <v>0.477225124835968</v>
       </c>
       <c r="W117" t="n">
-        <v>0.04434804990887642</v>
+        <v>0.007553525734692812</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4062001705169678</v>
       </c>
       <c r="V118" t="n">
-        <v>0.6570550203323364</v>
+        <v>0.9451200366020203</v>
       </c>
       <c r="W118" t="n">
-        <v>0.06292815506458282</v>
+        <v>0.2904346287250519</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3827722072601318</v>
       </c>
       <c r="V119" t="n">
-        <v>0.6280151605606079</v>
+        <v>0.8779913783073425</v>
       </c>
       <c r="W119" t="n">
-        <v>0.06014410778880119</v>
+        <v>0.2452420294284821</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4353110790252686</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5067566633224487</v>
+        <v>0.9241580367088318</v>
       </c>
       <c r="W120" t="n">
-        <v>0.00510447146371007</v>
+        <v>0.2389713525772095</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3870539665222168</v>
       </c>
       <c r="V121" t="n">
-        <v>0.551414966583252</v>
+        <v>0.5505293011665344</v>
       </c>
       <c r="W121" t="n">
-        <v>0.02701453864574432</v>
+        <v>0.0267241857945919</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8736557960510254</v>
       </c>
       <c r="V122" t="n">
-        <v>0.436014860868454</v>
+        <v>0.5049461722373962</v>
       </c>
       <c r="W122" t="n">
-        <v>0.1915295869112015</v>
+        <v>0.1359467804431915</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9225528240203857</v>
       </c>
       <c r="V123" t="n">
-        <v>0.630542516708374</v>
+        <v>0.5509434938430786</v>
       </c>
       <c r="W123" t="n">
-        <v>0.08527001738548279</v>
+        <v>0.138093501329422</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.9412758350372314</v>
       </c>
       <c r="V124" t="n">
-        <v>0.6175475120544434</v>
+        <v>0.4816274046897888</v>
       </c>
       <c r="W124" t="n">
-        <v>0.1048000305891037</v>
+        <v>0.2112766802310944</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8774721622467041</v>
       </c>
       <c r="V125" t="n">
-        <v>0.3900977373123169</v>
+        <v>0.550507664680481</v>
       </c>
       <c r="W125" t="n">
-        <v>0.2375338226556778</v>
+        <v>0.1069057807326317</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8695919513702393</v>
       </c>
       <c r="V126" t="n">
-        <v>0.7384928464889526</v>
+        <v>0.493573009967804</v>
       </c>
       <c r="W126" t="n">
-        <v>0.01718697510659695</v>
+        <v>0.14139024913311</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8632478713989258</v>
       </c>
       <c r="V127" t="n">
-        <v>0.5535620450973511</v>
+        <v>0.4826928973197937</v>
       </c>
       <c r="W127" t="n">
-        <v>0.09590531140565872</v>
+        <v>0.1448220908641815</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.9156429767608643</v>
       </c>
       <c r="V128" t="n">
-        <v>0.4663760364055634</v>
+        <v>0.4733518362045288</v>
       </c>
       <c r="W128" t="n">
-        <v>0.2018407881259918</v>
+        <v>0.195621445775032</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8555259704589844</v>
       </c>
       <c r="V129" t="n">
-        <v>0.8187210559844971</v>
+        <v>0.9234590530395508</v>
       </c>
       <c r="W129" t="n">
-        <v>0.001354601699858904</v>
+        <v>0.004614903591573238</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8709549903869629</v>
       </c>
       <c r="V130" t="n">
-        <v>0.6245107650756836</v>
+        <v>0.9388226866722107</v>
       </c>
       <c r="W130" t="n">
-        <v>0.06073475629091263</v>
+        <v>0.004606024362146854</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8579151630401611</v>
       </c>
       <c r="V131" t="n">
-        <v>0.7251691818237305</v>
+        <v>0.4745846390724182</v>
       </c>
       <c r="W131" t="n">
-        <v>0.01762149482965469</v>
+        <v>0.1469422876834869</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.9104230403900146</v>
       </c>
       <c r="V132" t="n">
-        <v>0.4660023748874664</v>
+        <v>0.5510334968566895</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1975097209215164</v>
+        <v>0.1291608512401581</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8818509578704834</v>
       </c>
       <c r="V133" t="n">
-        <v>0.3906354904174805</v>
+        <v>0.9015042185783386</v>
       </c>
       <c r="W133" t="n">
-        <v>0.2412926405668259</v>
+        <v>0.0003862506709992886</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8586859703063965</v>
       </c>
       <c r="V134" t="n">
-        <v>0.3785422742366791</v>
+        <v>0.5050869584083557</v>
       </c>
       <c r="W134" t="n">
-        <v>0.2305379658937454</v>
+        <v>0.1250322610139847</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8762311935424805</v>
       </c>
       <c r="V135" t="n">
-        <v>0.4420330226421356</v>
+        <v>0.4928642511367798</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1885280460119247</v>
+        <v>0.1469702124595642</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.9248521327972412</v>
       </c>
       <c r="V136" t="n">
-        <v>0.5017784237861633</v>
+        <v>0.9366770386695862</v>
       </c>
       <c r="W136" t="n">
-        <v>0.178991362452507</v>
+        <v>0.000139828393002972</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8648381233215332</v>
       </c>
       <c r="V137" t="n">
-        <v>0.624763011932373</v>
+        <v>0.4676544070243835</v>
       </c>
       <c r="W137" t="n">
-        <v>0.05763605982065201</v>
+        <v>0.1577548980712891</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8571901321411133</v>
       </c>
       <c r="V138" t="n">
-        <v>0.6580631732940674</v>
+        <v>0.4963752627372742</v>
       </c>
       <c r="W138" t="n">
-        <v>0.0396515466272831</v>
+        <v>0.1301873773336411</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8638780117034912</v>
       </c>
       <c r="V139" t="n">
-        <v>0.4422197341918945</v>
+        <v>0.9004998803138733</v>
       </c>
       <c r="W139" t="n">
-        <v>0.1777957081794739</v>
+        <v>0.001341161318123341</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.9216220378875732</v>
       </c>
       <c r="V140" t="n">
-        <v>0.8119727373123169</v>
+        <v>0.4809172749519348</v>
       </c>
       <c r="W140" t="n">
-        <v>0.01202296931296587</v>
+        <v>0.1942206919193268</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8655240535736084</v>
       </c>
       <c r="V141" t="n">
-        <v>0.6212022304534912</v>
+        <v>0.8807281255722046</v>
       </c>
       <c r="W141" t="n">
-        <v>0.05969315394759178</v>
+        <v>0.0002311638090759516</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5325958728790283</v>
       </c>
       <c r="V142" t="n">
-        <v>0.569115161895752</v>
+        <v>0.478474497795105</v>
       </c>
       <c r="W142" t="n">
-        <v>0.001333658467046916</v>
+        <v>0.002929123351350427</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5176129341125488</v>
       </c>
       <c r="V143" t="n">
-        <v>0.6731165647506714</v>
+        <v>0.4801283478736877</v>
       </c>
       <c r="W143" t="n">
-        <v>0.02418137900531292</v>
+        <v>0.001405094168148935</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5196959972381592</v>
       </c>
       <c r="V144" t="n">
-        <v>0.6434009075164795</v>
+        <v>0.874661922454834</v>
       </c>
       <c r="W144" t="n">
-        <v>0.01530290488153696</v>
+        <v>0.1260008066892624</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5674209594726562</v>
       </c>
       <c r="V145" t="n">
-        <v>0.5474125146865845</v>
+        <v>0.9309020638465881</v>
       </c>
       <c r="W145" t="n">
-        <v>0.0004003378562629223</v>
+        <v>0.1321185082197189</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5182461738586426</v>
       </c>
       <c r="V146" t="n">
-        <v>0.6340599060058594</v>
+        <v>0.4682434797286987</v>
       </c>
       <c r="W146" t="n">
-        <v>0.01341282017529011</v>
+        <v>0.002500269329175353</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5299820899963379</v>
       </c>
       <c r="V147" t="n">
-        <v>0.8163976669311523</v>
+        <v>0.9210521578788757</v>
       </c>
       <c r="W147" t="n">
-        <v>0.08203388005495071</v>
+        <v>0.152935802936554</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5291609764099121</v>
       </c>
       <c r="V148" t="n">
-        <v>0.5545951128005981</v>
+        <v>0.9280359148979187</v>
       </c>
       <c r="W148" t="n">
-        <v>0.0006468953215517104</v>
+        <v>0.1591012179851532</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5167889595031738</v>
       </c>
       <c r="V149" t="n">
-        <v>0.5714279413223267</v>
+        <v>0.936978280544281</v>
       </c>
       <c r="W149" t="n">
-        <v>0.002985418308526278</v>
+        <v>0.1765590608119965</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5125491619110107</v>
       </c>
       <c r="V150" t="n">
-        <v>0.4357521533966064</v>
+        <v>0.5129169225692749</v>
       </c>
       <c r="W150" t="n">
-        <v>0.005897780414670706</v>
+        <v>1.352479017668884e-07</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5128631591796875</v>
       </c>
       <c r="V151" t="n">
-        <v>0.6566433906555176</v>
+        <v>0.4909427165985107</v>
       </c>
       <c r="W151" t="n">
-        <v>0.02067275531589985</v>
+        <v>0.0004805058124475181</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5138688087463379</v>
       </c>
       <c r="V152" t="n">
-        <v>0.5767316818237305</v>
+        <v>0.4781069755554199</v>
       </c>
       <c r="W152" t="n">
-        <v>0.00395174091681838</v>
+        <v>0.001278908690437675</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5169169902801514</v>
       </c>
       <c r="V153" t="n">
-        <v>0.5040199756622314</v>
+        <v>0.4864527583122253</v>
       </c>
       <c r="W153" t="n">
-        <v>0.0001663329894654453</v>
+        <v>0.0009280694066546857</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5151340961456299</v>
       </c>
       <c r="V154" t="n">
-        <v>0.475897878408432</v>
+        <v>0.532916784286499</v>
       </c>
       <c r="W154" t="n">
-        <v>0.001539480756036937</v>
+        <v>0.0003162240027450025</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5114359855651855</v>
       </c>
       <c r="V155" t="n">
-        <v>0.5595355629920959</v>
+        <v>0.4880013465881348</v>
       </c>
       <c r="W155" t="n">
-        <v>0.002313569420948625</v>
+        <v>0.0005491822957992554</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5672039985656738</v>
       </c>
       <c r="V156" t="n">
-        <v>0.5615204572677612</v>
+        <v>0.5169493556022644</v>
       </c>
       <c r="W156" t="n">
-        <v>3.230264337616973e-05</v>
+        <v>0.002525529125705361</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5139780044555664</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5677254199981689</v>
+        <v>0.5504743456840515</v>
       </c>
       <c r="W157" t="n">
-        <v>0.002888784743845463</v>
+        <v>0.001331982901319861</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5202128887176514</v>
       </c>
       <c r="V158" t="n">
-        <v>0.4558286666870117</v>
+        <v>0.9230161309242249</v>
       </c>
       <c r="W158" t="n">
-        <v>0.00414532795548439</v>
+        <v>0.1622504591941833</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5174028873443604</v>
       </c>
       <c r="V159" t="n">
-        <v>0.6238876581192017</v>
+        <v>0.4770850539207458</v>
       </c>
       <c r="W159" t="n">
-        <v>0.01133900601416826</v>
+        <v>0.001625527744181454</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.517078161239624</v>
       </c>
       <c r="V160" t="n">
-        <v>0.6530184745788574</v>
+        <v>0.5345993638038635</v>
       </c>
       <c r="W160" t="n">
-        <v>0.01847976818680763</v>
+        <v>0.0003069925296586007</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5246851444244385</v>
       </c>
       <c r="V161" t="n">
-        <v>0.8121641874313354</v>
+        <v>0.4815666079521179</v>
       </c>
       <c r="W161" t="n">
-        <v>0.08264420181512833</v>
+        <v>0.00185920821968466</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3922491073608398</v>
       </c>
       <c r="V162" t="n">
-        <v>0.7337663173675537</v>
+        <v>0.8933221101760864</v>
       </c>
       <c r="W162" t="n">
-        <v>0.1166340038180351</v>
+        <v>0.2510741651058197</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3899219036102295</v>
       </c>
       <c r="V163" t="n">
-        <v>0.5481818318367004</v>
+        <v>0.5342336297035217</v>
       </c>
       <c r="W163" t="n">
-        <v>0.02504620514810085</v>
+        <v>0.02082587406039238</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3867809772491455</v>
       </c>
       <c r="V164" t="n">
-        <v>0.6209926605224609</v>
+        <v>0.5514835119247437</v>
       </c>
       <c r="W164" t="n">
-        <v>0.0548551119863987</v>
+        <v>0.02712692506611347</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3911268711090088</v>
       </c>
       <c r="V165" t="n">
-        <v>0.5689204931259155</v>
+        <v>0.468506395816803</v>
       </c>
       <c r="W165" t="n">
-        <v>0.03161057084798813</v>
+        <v>0.0059875906445086</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3830370903015137</v>
       </c>
       <c r="V166" t="n">
-        <v>0.4360882639884949</v>
+        <v>0.9226030111312866</v>
       </c>
       <c r="W166" t="n">
-        <v>0.002814427018165588</v>
+        <v>0.2911313772201538</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3917679786682129</v>
       </c>
       <c r="V167" t="n">
-        <v>0.6890506744384766</v>
+        <v>0.4796267151832581</v>
       </c>
       <c r="W167" t="n">
-        <v>0.08837699890136719</v>
+        <v>0.007719157729297876</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3826639652252197</v>
       </c>
       <c r="V168" t="n">
-        <v>0.4707243740558624</v>
+        <v>0.5165253281593323</v>
       </c>
       <c r="W168" t="n">
-        <v>0.007754635531455278</v>
+        <v>0.01791886426508427</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3930690288543701</v>
       </c>
       <c r="V169" t="n">
-        <v>0.4538178741931915</v>
+        <v>0.4805134534835815</v>
       </c>
       <c r="W169" t="n">
-        <v>0.003690422279760242</v>
+        <v>0.007646527606993914</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3894410133361816</v>
       </c>
       <c r="V170" t="n">
-        <v>0.4577381312847137</v>
+        <v>0.5513592958450317</v>
       </c>
       <c r="W170" t="n">
-        <v>0.004664496518671513</v>
+        <v>0.02621752955019474</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3869819641113281</v>
       </c>
       <c r="V171" t="n">
-        <v>0.504918098449707</v>
+        <v>0.4681232571601868</v>
       </c>
       <c r="W171" t="n">
-        <v>0.01390893198549747</v>
+        <v>0.006583909504115582</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3998539447784424</v>
       </c>
       <c r="V172" t="n">
-        <v>0.7464801073074341</v>
+        <v>0.486387312412262</v>
       </c>
       <c r="W172" t="n">
-        <v>0.1201496943831444</v>
+        <v>0.007488023489713669</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3850870132446289</v>
       </c>
       <c r="V173" t="n">
-        <v>0.8164883852005005</v>
+        <v>0.9131049513816833</v>
       </c>
       <c r="W173" t="n">
-        <v>0.1861071437597275</v>
+        <v>0.2788029313087463</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4390518665313721</v>
       </c>
       <c r="V174" t="n">
-        <v>0.476378470659256</v>
+        <v>0.949289858341217</v>
       </c>
       <c r="W174" t="n">
-        <v>0.001393275335431099</v>
+        <v>0.2603428065776825</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3930079936981201</v>
       </c>
       <c r="V175" t="n">
-        <v>0.6487832069396973</v>
+        <v>0.4923161864280701</v>
       </c>
       <c r="W175" t="n">
-        <v>0.065420962870121</v>
+        <v>0.00986211746931076</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3845539093017578</v>
       </c>
       <c r="V176" t="n">
-        <v>0.5659756064414978</v>
+        <v>0.9078723192214966</v>
       </c>
       <c r="W176" t="n">
-        <v>0.03291383385658264</v>
+        <v>0.2738621532917023</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.3973619937896729</v>
       </c>
       <c r="V177" t="n">
-        <v>0.4536274671554565</v>
+        <v>0.5339489579200745</v>
       </c>
       <c r="W177" t="n">
-        <v>0.003165803384035826</v>
+        <v>0.01865599863231182</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3930091857910156</v>
       </c>
       <c r="V178" t="n">
-        <v>0.4749151468276978</v>
+        <v>0.4789587259292603</v>
       </c>
       <c r="W178" t="n">
-        <v>0.00670858658850193</v>
+        <v>0.007387323305010796</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3918261528015137</v>
       </c>
       <c r="V179" t="n">
-        <v>0.624285101890564</v>
+        <v>0.5522092580795288</v>
       </c>
       <c r="W179" t="n">
-        <v>0.05403716117143631</v>
+        <v>0.02572274021804333</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.4351451396942139</v>
       </c>
       <c r="V180" t="n">
-        <v>0.4873129427433014</v>
+        <v>0.4800195693969727</v>
       </c>
       <c r="W180" t="n">
-        <v>0.002721479628235102</v>
+        <v>0.002013714518398046</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.409466028213501</v>
       </c>
       <c r="V181" t="n">
-        <v>0.4553817808628082</v>
+        <v>0.4852691292762756</v>
       </c>
       <c r="W181" t="n">
-        <v>0.002108256332576275</v>
+        <v>0.005746110342442989</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8682320117950439</v>
       </c>
       <c r="V182" t="n">
-        <v>0.6605738401412964</v>
+        <v>0.4834255576133728</v>
       </c>
       <c r="W182" t="n">
-        <v>0.04312191531062126</v>
+        <v>0.1480760127305984</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9088780879974365</v>
       </c>
       <c r="V183" t="n">
-        <v>0.3783778548240662</v>
+        <v>0.4839110970497131</v>
       </c>
       <c r="W183" t="n">
-        <v>0.2814304828643799</v>
+        <v>0.1805969476699829</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8797550201416016</v>
       </c>
       <c r="V184" t="n">
-        <v>0.505409836769104</v>
+        <v>0.9633433222770691</v>
       </c>
       <c r="W184" t="n">
-        <v>0.1401343196630478</v>
+        <v>0.006987004075199366</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8760921955108643</v>
       </c>
       <c r="V185" t="n">
-        <v>0.4759599268436432</v>
+        <v>0.9425340294837952</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1601058393716812</v>
+        <v>0.004414517432451248</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.86456298828125</v>
       </c>
       <c r="V186" t="n">
-        <v>0.6248958110809326</v>
+        <v>0.8997279405593872</v>
       </c>
       <c r="W186" t="n">
-        <v>0.05744035542011261</v>
+        <v>0.001236573909409344</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8663771152496338</v>
       </c>
       <c r="V187" t="n">
-        <v>0.4641267657279968</v>
+        <v>0.4774680733680725</v>
       </c>
       <c r="W187" t="n">
-        <v>0.1618053466081619</v>
+        <v>0.1512502431869507</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8641040325164795</v>
       </c>
       <c r="V188" t="n">
-        <v>0.3901001513004303</v>
+        <v>0.4996404647827148</v>
       </c>
       <c r="W188" t="n">
-        <v>0.2246796786785126</v>
+        <v>0.1328336894512177</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8620679378509521</v>
       </c>
       <c r="V189" t="n">
-        <v>0.8164882659912109</v>
+        <v>0.8848759531974792</v>
       </c>
       <c r="W189" t="n">
-        <v>0.002077506389468908</v>
+        <v>0.0005202055908739567</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8663761615753174</v>
       </c>
       <c r="V190" t="n">
-        <v>0.4582839906215668</v>
+        <v>0.9904547929763794</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1665392220020294</v>
+        <v>0.01539550721645355</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8930869102478027</v>
       </c>
       <c r="V191" t="n">
-        <v>0.6245588064193726</v>
+        <v>0.551642119884491</v>
       </c>
       <c r="W191" t="n">
-        <v>0.07210734486579895</v>
+        <v>0.1165845468640327</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8557498455047607</v>
       </c>
       <c r="V192" t="n">
-        <v>0.6243749856948853</v>
+        <v>0.4837982058525085</v>
       </c>
       <c r="W192" t="n">
-        <v>0.05353432521224022</v>
+        <v>0.1383480280637741</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8668379783630371</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4661538004875183</v>
+        <v>0.4935126900672913</v>
       </c>
       <c r="W193" t="n">
-        <v>0.1605478078126907</v>
+        <v>0.1393717676401138</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8626399040222168</v>
       </c>
       <c r="V194" t="n">
-        <v>0.5533048510551453</v>
+        <v>0.5086367726325989</v>
       </c>
       <c r="W194" t="n">
-        <v>0.09568817168474197</v>
+        <v>0.1253182142972946</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8627820014953613</v>
       </c>
       <c r="V195" t="n">
-        <v>0.4584780037403107</v>
+        <v>0.9434719085693359</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1634617298841476</v>
+        <v>0.006510861217975616</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8614740371704102</v>
       </c>
       <c r="V196" t="n">
-        <v>0.4641658961772919</v>
+        <v>0.4773728251457214</v>
       </c>
       <c r="W196" t="n">
-        <v>0.157853752374649</v>
+        <v>0.1475337445735931</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8652498722076416</v>
       </c>
       <c r="V197" t="n">
-        <v>0.6420996189117432</v>
+        <v>0.9351314902305603</v>
       </c>
       <c r="W197" t="n">
-        <v>0.04979603737592697</v>
+        <v>0.004883440677076578</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8674049377441406</v>
       </c>
       <c r="V198" t="n">
-        <v>0.6213923692703247</v>
+        <v>0.9799944758415222</v>
       </c>
       <c r="W198" t="n">
-        <v>0.06052218377590179</v>
+        <v>0.01267640385776758</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8628010749816895</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5531672239303589</v>
+        <v>0.5335483551025391</v>
       </c>
       <c r="W199" t="n">
-        <v>0.09587312489748001</v>
+        <v>0.1084073558449745</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8531899452209473</v>
       </c>
       <c r="V200" t="n">
-        <v>0.4579397141933441</v>
+        <v>0.9429222941398621</v>
       </c>
       <c r="W200" t="n">
-        <v>0.1562227457761765</v>
+        <v>0.00805189460515976</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8850200176239014</v>
       </c>
       <c r="V201" t="n">
-        <v>0.816550612449646</v>
+        <v>0.8932095170021057</v>
       </c>
       <c r="W201" t="n">
-        <v>0.004688059445470572</v>
+        <v>6.706790009047836e-05</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.518841028213501</v>
       </c>
       <c r="V202" t="n">
-        <v>0.5712623596191406</v>
+        <v>0.5342365503311157</v>
       </c>
       <c r="W202" t="n">
-        <v>0.00274799601174891</v>
+        <v>0.0002370221045566723</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5061159133911133</v>
       </c>
       <c r="V203" t="n">
-        <v>0.4755290746688843</v>
+        <v>0.4774076342582703</v>
       </c>
       <c r="W203" t="n">
-        <v>0.000935554679017514</v>
+        <v>0.0008241652976721525</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5234968662261963</v>
       </c>
       <c r="V204" t="n">
-        <v>0.4575155675411224</v>
+        <v>0.5345543026924133</v>
       </c>
       <c r="W204" t="n">
-        <v>0.004353531636297703</v>
+        <v>0.00012226689432282</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5126559734344482</v>
       </c>
       <c r="V205" t="n">
-        <v>0.3785330653190613</v>
+        <v>0.4855159521102905</v>
       </c>
       <c r="W205" t="n">
-        <v>0.01798895373940468</v>
+        <v>0.0007365807541646063</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5182609558105469</v>
       </c>
       <c r="V206" t="n">
-        <v>0.4707935154438019</v>
+        <v>0.4760453104972839</v>
       </c>
       <c r="W206" t="n">
-        <v>0.00225315778516233</v>
+        <v>0.001782160717993975</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5213098526000977</v>
       </c>
       <c r="V207" t="n">
-        <v>0.6570440530776978</v>
+        <v>0.466929018497467</v>
       </c>
       <c r="W207" t="n">
-        <v>0.01842377334833145</v>
+        <v>0.00295727513730526</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5172619819641113</v>
       </c>
       <c r="V208" t="n">
-        <v>0.6046534776687622</v>
+        <v>0.5515900850296021</v>
       </c>
       <c r="W208" t="n">
-        <v>0.007637273520231247</v>
+        <v>0.001178418635390699</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5335760116577148</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4582692682743073</v>
+        <v>0.5907027721405029</v>
       </c>
       <c r="W209" t="n">
-        <v>0.005671105813235044</v>
+        <v>0.003263466758653522</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.515449047088623</v>
       </c>
       <c r="V210" t="n">
-        <v>0.3793536722660065</v>
+        <v>0.902294933795929</v>
       </c>
       <c r="W210" t="n">
-        <v>0.01852195151150227</v>
+        <v>0.1496497392654419</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5734670162200928</v>
       </c>
       <c r="V211" t="n">
-        <v>0.5035736560821533</v>
+        <v>0.4681025147438049</v>
       </c>
       <c r="W211" t="n">
-        <v>0.004885081667453051</v>
+        <v>0.01110167801380157</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5208618640899658</v>
       </c>
       <c r="V212" t="n">
-        <v>0.5087136030197144</v>
+        <v>0.5345390439033508</v>
       </c>
       <c r="W212" t="n">
-        <v>0.0001475802419008687</v>
+        <v>0.0001870652486104518</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5110840797424316</v>
       </c>
       <c r="V213" t="n">
-        <v>0.6185418367385864</v>
+        <v>0.468835711479187</v>
       </c>
       <c r="W213" t="n">
-        <v>0.01154716964811087</v>
+        <v>0.00178492465056479</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5148739814758301</v>
       </c>
       <c r="V214" t="n">
-        <v>0.4581899344921112</v>
+        <v>0.5343888401985168</v>
       </c>
       <c r="W214" t="n">
-        <v>0.00321308127604425</v>
+        <v>0.000380829704226926</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5222499370574951</v>
       </c>
       <c r="V215" t="n">
-        <v>0.6437071561813354</v>
+        <v>0.4688831567764282</v>
       </c>
       <c r="W215" t="n">
-        <v>0.01475185621529818</v>
+        <v>0.002848013304173946</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5418360233306885</v>
       </c>
       <c r="V216" t="n">
-        <v>0.6880613565444946</v>
+        <v>0.4776328802108765</v>
       </c>
       <c r="W216" t="n">
-        <v>0.02138184756040573</v>
+        <v>0.004122043494135141</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.515923023223877</v>
       </c>
       <c r="V217" t="n">
-        <v>0.6255437135696411</v>
+        <v>0.9018782377243042</v>
       </c>
       <c r="W217" t="n">
-        <v>0.01201669592410326</v>
+        <v>0.1489614248275757</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5280001163482666</v>
       </c>
       <c r="V218" t="n">
-        <v>0.4535927176475525</v>
+        <v>0.4999036192893982</v>
       </c>
       <c r="W218" t="n">
-        <v>0.005536460783332586</v>
+        <v>0.0007894131704233587</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5219769477844238</v>
       </c>
       <c r="V219" t="n">
-        <v>0.4363715648651123</v>
+        <v>0.8753727674484253</v>
       </c>
       <c r="W219" t="n">
-        <v>0.00732828164473176</v>
+        <v>0.1248886063694954</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5206429958343506</v>
       </c>
       <c r="V220" t="n">
-        <v>0.6210951805114746</v>
+        <v>0.4835386872291565</v>
       </c>
       <c r="W220" t="n">
-        <v>0.01009064167737961</v>
+        <v>0.001376729691401124</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.518092155456543</v>
       </c>
       <c r="V221" t="n">
-        <v>0.6187922954559326</v>
+        <v>0.5219755172729492</v>
       </c>
       <c r="W221" t="n">
-        <v>0.01014051865786314</v>
+        <v>1.508049899712205e-05</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.4146270751953125</v>
       </c>
       <c r="V222" t="n">
-        <v>0.7337785959243774</v>
+        <v>0.4817488193511963</v>
       </c>
       <c r="W222" t="n">
-        <v>0.1018576920032501</v>
+        <v>0.004505328368395567</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3879330158233643</v>
       </c>
       <c r="V223" t="n">
-        <v>0.4955423474311829</v>
+        <v>0.8734676241874695</v>
       </c>
       <c r="W223" t="n">
-        <v>0.01157976780086756</v>
+        <v>0.2357438504695892</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3930668830871582</v>
       </c>
       <c r="V224" t="n">
-        <v>0.5011930465698242</v>
+        <v>0.9363825917243958</v>
       </c>
       <c r="W224" t="n">
-        <v>0.01169126760214567</v>
+        <v>0.2951919734477997</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3895318508148193</v>
       </c>
       <c r="V225" t="n">
-        <v>0.812067985534668</v>
+        <v>0.9016712307929993</v>
       </c>
       <c r="W225" t="n">
-        <v>0.1785367876291275</v>
+        <v>0.2622867524623871</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3918609619140625</v>
       </c>
       <c r="V226" t="n">
-        <v>0.4360179901123047</v>
+        <v>0.5043182373046875</v>
       </c>
       <c r="W226" t="n">
-        <v>0.001949843135662377</v>
+        <v>0.01264663878828287</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3962280750274658</v>
       </c>
       <c r="V227" t="n">
-        <v>0.8187797069549561</v>
+        <v>0.4905226230621338</v>
       </c>
       <c r="W227" t="n">
-        <v>0.1785498857498169</v>
+        <v>0.008891461417078972</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4477319717407227</v>
       </c>
       <c r="V228" t="n">
-        <v>0.8231332302093506</v>
+        <v>0.4929059147834778</v>
       </c>
       <c r="W228" t="n">
-        <v>0.1409261077642441</v>
+        <v>0.002040685154497623</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.404620885848999</v>
       </c>
       <c r="V229" t="n">
-        <v>0.5551027059555054</v>
+        <v>0.927685558795929</v>
       </c>
       <c r="W229" t="n">
-        <v>0.02264477871358395</v>
+        <v>0.2735966444015503</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3943550586700439</v>
       </c>
       <c r="V230" t="n">
-        <v>0.390147477388382</v>
+        <v>0.9906803965568542</v>
       </c>
       <c r="W230" t="n">
-        <v>1.770374001353048e-05</v>
+        <v>0.3556039035320282</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3890430927276611</v>
       </c>
       <c r="V231" t="n">
-        <v>0.4643741250038147</v>
+        <v>0.5505238175392151</v>
       </c>
       <c r="W231" t="n">
-        <v>0.005674764513969421</v>
+        <v>0.02607602439820766</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4087469577789307</v>
       </c>
       <c r="V232" t="n">
-        <v>0.5517981052398682</v>
+        <v>0.476999044418335</v>
       </c>
       <c r="W232" t="n">
-        <v>0.02046363055706024</v>
+        <v>0.004658347461372614</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.459446907043457</v>
       </c>
       <c r="V233" t="n">
-        <v>0.4552138149738312</v>
+        <v>0.47833251953125</v>
       </c>
       <c r="W233" t="n">
-        <v>1.791906834114343e-05</v>
+        <v>0.0003566663654055446</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.4955809116363525</v>
       </c>
       <c r="V234" t="n">
-        <v>0.6239811182022095</v>
+        <v>0.8614669442176819</v>
       </c>
       <c r="W234" t="n">
-        <v>0.01648661307990551</v>
+        <v>0.1338725835084915</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4141709804534912</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5013586282730103</v>
+        <v>0.8813909292221069</v>
       </c>
       <c r="W235" t="n">
-        <v>0.00760168582201004</v>
+        <v>0.2182944864034653</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.42547607421875</v>
       </c>
       <c r="V236" t="n">
-        <v>0.3790062367916107</v>
+        <v>0.4686864614486694</v>
       </c>
       <c r="W236" t="n">
-        <v>0.002159445779398084</v>
+        <v>0.001867137616500258</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3848140239715576</v>
       </c>
       <c r="V237" t="n">
-        <v>0.7368419170379639</v>
+        <v>0.5895280838012695</v>
       </c>
       <c r="W237" t="n">
-        <v>0.1239236369729042</v>
+        <v>0.04190784692764282</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.38555908203125</v>
       </c>
       <c r="V238" t="n">
-        <v>0.7538954019546509</v>
+        <v>0.4710959792137146</v>
       </c>
       <c r="W238" t="n">
-        <v>0.1356716454029083</v>
+        <v>0.007316560950130224</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3895440101623535</v>
       </c>
       <c r="V239" t="n">
-        <v>0.4578924179077148</v>
+        <v>0.925767719745636</v>
       </c>
       <c r="W239" t="n">
-        <v>0.004671504721045494</v>
+        <v>0.2875358760356903</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.399630069732666</v>
       </c>
       <c r="V240" t="n">
-        <v>0.8167376518249512</v>
+        <v>0.4676654934883118</v>
       </c>
       <c r="W240" t="n">
-        <v>0.1739787310361862</v>
+        <v>0.004628818947821856</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.4002130031585693</v>
       </c>
       <c r="V241" t="n">
-        <v>0.4422093331813812</v>
+        <v>0.534315288066864</v>
       </c>
       <c r="W241" t="n">
-        <v>0.001763691776432097</v>
+        <v>0.01798342354595661</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8866128921508789</v>
       </c>
       <c r="V242" t="n">
-        <v>0.6602040529251099</v>
+        <v>0.9588387012481689</v>
       </c>
       <c r="W242" t="n">
-        <v>0.05126096308231354</v>
+        <v>0.005216567311435938</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8982641696929932</v>
       </c>
       <c r="V243" t="n">
-        <v>0.5761919021606445</v>
+        <v>0.4869549870491028</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1037305444478989</v>
+        <v>0.1691752374172211</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8848788738250732</v>
       </c>
       <c r="V244" t="n">
-        <v>0.436027318239212</v>
+        <v>0.4781153202056885</v>
       </c>
       <c r="W244" t="n">
-        <v>0.2014677226543427</v>
+        <v>0.1654565930366516</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.888768196105957</v>
       </c>
       <c r="V245" t="n">
-        <v>0.57613205909729</v>
+        <v>0.8740795254707336</v>
       </c>
       <c r="W245" t="n">
-        <v>0.09774135053157806</v>
+        <v>0.0002157570415874943</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8687000274658203</v>
       </c>
       <c r="V246" t="n">
-        <v>0.4361319839954376</v>
+        <v>0.4825757145881653</v>
       </c>
       <c r="W246" t="n">
-        <v>0.1871151179075241</v>
+        <v>0.1490919888019562</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.9648301601409912</v>
       </c>
       <c r="V247" t="n">
-        <v>0.56818687915802</v>
+        <v>0.4832603931427002</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1573258936405182</v>
+        <v>0.2319094389677048</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8653190135955811</v>
       </c>
       <c r="V248" t="n">
-        <v>0.5235501527786255</v>
+        <v>0.8811386227607727</v>
       </c>
       <c r="W248" t="n">
-        <v>0.1168059557676315</v>
+        <v>0.0002502600254956633</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.9004149436950684</v>
       </c>
       <c r="V249" t="n">
-        <v>0.7324898242950439</v>
+        <v>0.9113706350326538</v>
       </c>
       <c r="W249" t="n">
-        <v>0.02819884568452835</v>
+        <v>0.000120027172670234</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8592770099639893</v>
       </c>
       <c r="V250" t="n">
-        <v>0.7316849231719971</v>
+        <v>0.4895361065864563</v>
       </c>
       <c r="W250" t="n">
-        <v>0.01627974025905132</v>
+        <v>0.1367083340883255</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8892190456390381</v>
       </c>
       <c r="V251" t="n">
-        <v>0.4588357210159302</v>
+        <v>0.8810930848121643</v>
       </c>
       <c r="W251" t="n">
-        <v>0.1852298080921173</v>
+        <v>6.603123620152473e-05</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.889707088470459</v>
       </c>
       <c r="V252" t="n">
-        <v>0.7248722314834595</v>
+        <v>0.9278510808944702</v>
       </c>
       <c r="W252" t="n">
-        <v>0.02717052958905697</v>
+        <v>0.001454964163713157</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8901798725128174</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5515128374099731</v>
+        <v>0.4808077216148376</v>
       </c>
       <c r="W253" t="n">
-        <v>0.1146953627467155</v>
+        <v>0.167585551738739</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8699448108673096</v>
       </c>
       <c r="V254" t="n">
-        <v>0.5687597990036011</v>
+        <v>0.5509068965911865</v>
       </c>
       <c r="W254" t="n">
-        <v>0.09071241319179535</v>
+        <v>0.1017851904034615</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8666360378265381</v>
       </c>
       <c r="V255" t="n">
-        <v>0.5760806798934937</v>
+        <v>0.534287691116333</v>
       </c>
       <c r="W255" t="n">
-        <v>0.08442241698503494</v>
+        <v>0.1104554235935211</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.9057080745697021</v>
       </c>
       <c r="V256" t="n">
-        <v>0.6259042024612427</v>
+        <v>0.4947951436042786</v>
       </c>
       <c r="W256" t="n">
-        <v>0.07829020917415619</v>
+        <v>0.1688494384288788</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8726089000701904</v>
       </c>
       <c r="V257" t="n">
-        <v>0.43533855676651</v>
+        <v>0.9488189220428467</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1912053525447845</v>
+        <v>0.005807967390865088</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8599560260772705</v>
       </c>
       <c r="V258" t="n">
-        <v>0.618610143661499</v>
+        <v>0.5884271264076233</v>
       </c>
       <c r="W258" t="n">
-        <v>0.05824783444404602</v>
+        <v>0.07372794300317764</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8752288818359375</v>
       </c>
       <c r="V259" t="n">
-        <v>0.4704041182994843</v>
+        <v>0.9553730487823486</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1638830900192261</v>
+        <v>0.006423087324947119</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.9284148216247559</v>
       </c>
       <c r="V260" t="n">
-        <v>0.6252998113632202</v>
+        <v>0.4737380146980286</v>
       </c>
       <c r="W260" t="n">
-        <v>0.09187871217727661</v>
+        <v>0.206730991601944</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8699889183044434</v>
       </c>
       <c r="V261" t="n">
-        <v>0.5720549821853638</v>
+        <v>0.5511435270309448</v>
       </c>
       <c r="W261" t="n">
-        <v>0.08876463025808334</v>
+        <v>0.1016623824834824</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5303249359130859</v>
       </c>
       <c r="V262" t="n">
-        <v>0.4203605949878693</v>
+        <v>0.5032649636268616</v>
       </c>
       <c r="W262" t="n">
-        <v>0.01209215633571148</v>
+        <v>0.0007322420715354383</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5547659397125244</v>
       </c>
       <c r="V263" t="n">
-        <v>0.8119169473648071</v>
+        <v>0.507008969783783</v>
       </c>
       <c r="W263" t="n">
-        <v>0.06612663716077805</v>
+        <v>0.002280728192999959</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5241129398345947</v>
       </c>
       <c r="V264" t="n">
-        <v>0.6195765733718872</v>
+        <v>0.486092209815979</v>
       </c>
       <c r="W264" t="n">
-        <v>0.009113305248320103</v>
+        <v>0.001445575966499746</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5815720558166504</v>
       </c>
       <c r="V265" t="n">
-        <v>0.4644940793514252</v>
+        <v>0.468403160572052</v>
       </c>
       <c r="W265" t="n">
-        <v>0.01370725221931934</v>
+        <v>0.01280719880014658</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5247659683227539</v>
       </c>
       <c r="V266" t="n">
-        <v>0.5682737827301025</v>
+        <v>0.477984607219696</v>
       </c>
       <c r="W266" t="n">
-        <v>0.001892929896712303</v>
+        <v>0.002188495825976133</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5425310134887695</v>
       </c>
       <c r="V267" t="n">
-        <v>0.474732518196106</v>
+        <v>0.4727975726127625</v>
       </c>
       <c r="W267" t="n">
-        <v>0.004596636164933443</v>
+        <v>0.004862752743065357</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5219049453735352</v>
       </c>
       <c r="V268" t="n">
-        <v>0.3788443207740784</v>
+        <v>0.4871739745140076</v>
       </c>
       <c r="W268" t="n">
-        <v>0.02046634256839752</v>
+        <v>0.001206240383908153</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5171370506286621</v>
       </c>
       <c r="V269" t="n">
-        <v>0.3823255002498627</v>
+        <v>0.9073109030723572</v>
       </c>
       <c r="W269" t="n">
-        <v>0.01817415468394756</v>
+        <v>0.1522356420755386</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.521557092666626</v>
       </c>
       <c r="V270" t="n">
-        <v>0.6847788095474243</v>
+        <v>0.9360829591751099</v>
       </c>
       <c r="W270" t="n">
-        <v>0.02664132975041866</v>
+        <v>0.1718316972255707</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5325229167938232</v>
       </c>
       <c r="V271" t="n">
-        <v>0.4757482409477234</v>
+        <v>0.4815484881401062</v>
       </c>
       <c r="W271" t="n">
-        <v>0.003223363775759935</v>
+        <v>0.002598392311483622</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5438649654388428</v>
       </c>
       <c r="V272" t="n">
-        <v>0.3778295516967773</v>
+        <v>0.86595219373703</v>
       </c>
       <c r="W272" t="n">
-        <v>0.02756775915622711</v>
+        <v>0.1037401854991913</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5193400382995605</v>
       </c>
       <c r="V273" t="n">
-        <v>0.6255502700805664</v>
+        <v>0.5346564054489136</v>
       </c>
       <c r="W273" t="n">
-        <v>0.01128061302006245</v>
+        <v>0.000234591105254367</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5411560535430908</v>
       </c>
       <c r="V274" t="n">
-        <v>0.4660579562187195</v>
+        <v>0.8837704658508301</v>
       </c>
       <c r="W274" t="n">
-        <v>0.005639724433422089</v>
+        <v>0.117384634912014</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5221030712127686</v>
       </c>
       <c r="V275" t="n">
-        <v>0.6190664768218994</v>
+        <v>0.5327979326248169</v>
       </c>
       <c r="W275" t="n">
-        <v>0.009401901625096798</v>
+        <v>0.000114380061859265</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.571307897567749</v>
       </c>
       <c r="V276" t="n">
-        <v>0.7471864223480225</v>
+        <v>0.5051229000091553</v>
       </c>
       <c r="W276" t="n">
-        <v>0.03093325532972813</v>
+        <v>0.0043804538436234</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.519752025604248</v>
       </c>
       <c r="V277" t="n">
-        <v>0.4576936960220337</v>
+        <v>0.9174248576164246</v>
       </c>
       <c r="W277" t="n">
-        <v>0.003851236309856176</v>
+        <v>0.1581436842679977</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5181660652160645</v>
       </c>
       <c r="V278" t="n">
-        <v>0.8167510032653809</v>
+        <v>0.9550445079803467</v>
       </c>
       <c r="W278" t="n">
-        <v>0.08915296196937561</v>
+        <v>0.190862774848938</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5186748504638672</v>
       </c>
       <c r="V279" t="n">
-        <v>0.471180647611618</v>
+        <v>0.4641743302345276</v>
       </c>
       <c r="W279" t="n">
-        <v>0.002255699364468455</v>
+        <v>0.002970306668430567</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5118470191955566</v>
       </c>
       <c r="V280" t="n">
-        <v>0.6437066793441772</v>
+        <v>0.5023531317710876</v>
       </c>
       <c r="W280" t="n">
-        <v>0.01738696917891502</v>
+        <v>9.013390081236139e-05</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5200009346008301</v>
       </c>
       <c r="V281" t="n">
-        <v>0.4746897518634796</v>
+        <v>0.4998142719268799</v>
       </c>
       <c r="W281" t="n">
-        <v>0.002053103176876903</v>
+        <v>0.0004075013566762209</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4067981243133545</v>
       </c>
       <c r="V282" t="n">
-        <v>0.6257109642028809</v>
+        <v>0.5019649267196655</v>
       </c>
       <c r="W282" t="n">
-        <v>0.04792283102869987</v>
+        <v>0.009056719951331615</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3972511291503906</v>
       </c>
       <c r="V283" t="n">
-        <v>0.6241402626037598</v>
+        <v>0.4994767904281616</v>
       </c>
       <c r="W283" t="n">
-        <v>0.05147868022322655</v>
+        <v>0.01045008562505245</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3987851142883301</v>
       </c>
       <c r="V284" t="n">
-        <v>0.6457363367080688</v>
+        <v>0.477887749671936</v>
       </c>
       <c r="W284" t="n">
-        <v>0.06098490580916405</v>
+        <v>0.006257227156311274</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3904919624328613</v>
       </c>
       <c r="V285" t="n">
-        <v>0.6257683038711548</v>
+        <v>0.9153417348861694</v>
       </c>
       <c r="W285" t="n">
-        <v>0.05535495653748512</v>
+        <v>0.2754672765731812</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3974740505218506</v>
       </c>
       <c r="V286" t="n">
-        <v>0.6167548894882202</v>
+        <v>0.481691300868988</v>
       </c>
       <c r="W286" t="n">
-        <v>0.0480840876698494</v>
+        <v>0.00709254527464509</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3979330062866211</v>
       </c>
       <c r="V287" t="n">
-        <v>0.4576262831687927</v>
+        <v>0.4795379638671875</v>
       </c>
       <c r="W287" t="n">
-        <v>0.003563287202268839</v>
+        <v>0.006659368984401226</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3974449634552002</v>
       </c>
       <c r="V288" t="n">
-        <v>0.4362451732158661</v>
+        <v>0.9101633429527283</v>
       </c>
       <c r="W288" t="n">
-        <v>0.001505456282757223</v>
+        <v>0.2628801465034485</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4038360118865967</v>
       </c>
       <c r="V289" t="n">
-        <v>0.6585533618927002</v>
+        <v>0.4684250950813293</v>
       </c>
       <c r="W289" t="n">
-        <v>0.06488092988729477</v>
+        <v>0.004171749576926231</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3921170234680176</v>
       </c>
       <c r="V290" t="n">
-        <v>0.4713866114616394</v>
+        <v>0.4798615574836731</v>
       </c>
       <c r="W290" t="n">
-        <v>0.006283667404204607</v>
+        <v>0.007699103094637394</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3896939754486084</v>
       </c>
       <c r="V291" t="n">
-        <v>0.4864535331726074</v>
+        <v>0.9956446290016174</v>
       </c>
       <c r="W291" t="n">
-        <v>0.009362411685287952</v>
+        <v>0.3671762049198151</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.3986268043518066</v>
       </c>
       <c r="V292" t="n">
-        <v>0.5526690483093262</v>
+        <v>0.5053911209106445</v>
       </c>
       <c r="W292" t="n">
-        <v>0.02372901327908039</v>
+        <v>0.01139861904084682</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3971590995788574</v>
       </c>
       <c r="V293" t="n">
-        <v>0.6168749332427979</v>
+        <v>0.9908910989761353</v>
       </c>
       <c r="W293" t="n">
-        <v>0.04827504605054855</v>
+        <v>0.352517694234848</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.4373650550842285</v>
       </c>
       <c r="V294" t="n">
-        <v>0.56879723072052</v>
+        <v>1.003051996231079</v>
       </c>
       <c r="W294" t="n">
-        <v>0.01727441698312759</v>
+        <v>0.3200017213821411</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3938009738922119</v>
       </c>
       <c r="V295" t="n">
-        <v>0.4543018043041229</v>
+        <v>0.9218835234642029</v>
       </c>
       <c r="W295" t="n">
-        <v>0.003660350572317839</v>
+        <v>0.2788711786270142</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3932690620422363</v>
       </c>
       <c r="V296" t="n">
-        <v>0.5160707235336304</v>
+        <v>0.9266560077667236</v>
       </c>
       <c r="W296" t="n">
-        <v>0.01508024800568819</v>
+        <v>0.2845016419887543</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3964509963989258</v>
       </c>
       <c r="V297" t="n">
-        <v>0.5520607233047485</v>
+        <v>0.4915753602981567</v>
       </c>
       <c r="W297" t="n">
-        <v>0.02421438694000244</v>
+        <v>0.009048644453287125</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3948540687561035</v>
       </c>
       <c r="V298" t="n">
-        <v>0.6469850540161133</v>
+        <v>0.4680237174034119</v>
       </c>
       <c r="W298" t="n">
-        <v>0.06357003003358841</v>
+        <v>0.005353797692805529</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3974549770355225</v>
       </c>
       <c r="V299" t="n">
-        <v>0.4363065361976624</v>
+        <v>0.9019927978515625</v>
       </c>
       <c r="W299" t="n">
-        <v>0.001509443623945117</v>
+        <v>0.2545584142208099</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4467239379882812</v>
       </c>
       <c r="V300" t="n">
-        <v>0.4813840687274933</v>
+        <v>0.477759063243866</v>
       </c>
       <c r="W300" t="n">
-        <v>0.001201324630528688</v>
+        <v>0.0009631789871491492</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3982679843902588</v>
       </c>
       <c r="V301" t="n">
-        <v>0.4765401184558868</v>
+        <v>0.4848923087120056</v>
       </c>
       <c r="W301" t="n">
-        <v>0.006126526743173599</v>
+        <v>0.007503773551434278</v>
       </c>
     </row>
     <row r="302" spans="1:23">
